--- a/radioaktiivisuus/säteily.xlsx
+++ b/radioaktiivisuus/säteily.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="555" windowWidth="20775" windowHeight="9405"/>
+    <workbookView xWindow="270" yWindow="555" windowWidth="20775" windowHeight="9405" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
     <t>x</t>
   </si>
   <si>
-    <t>Havaittuja hajoamisia (kpl)</t>
+    <t>Havaitut pulssit (kpl)</t>
   </si>
 </sst>
 </file>
@@ -131,6 +131,26 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400"/>
+              <a:t>Havaittujen</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" baseline="0"/>
+              <a:t> pulssien määrä eri etäisyyksiltä</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
     </c:title>
@@ -145,11 +165,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$1</c:f>
+              <c:f>Sheet1!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Havaittuja hajoamisia (kpl)</c:v>
+                  <c:v>Havaitut pulssit (kpl)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -209,7 +229,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$11</c:f>
+              <c:f>Sheet1!$B$2:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -320,7 +340,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="fi-FI"/>
-                  <a:t>Havaittuja hajoamisia (kpl)</a:t>
+                  <a:t>Havaitut pulssit (kpl)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -349,17 +369,207 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fi-FI"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Havaittujen pulssien lukumäärä</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$A$2:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$2:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3797</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3801</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3554</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3535</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3330</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3315</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2809</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2655</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2576</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2193</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="245026816"/>
+        <c:axId val="245028352"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="245026816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="245028352"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="245028352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="245026816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>990600</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>942976</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
@@ -367,6 +577,41 @@
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>990600</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>990600</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -671,158 +916,158 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>5</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2">
+        <v>2704</v>
+      </c>
+      <c r="C2" s="1">
         <f>1/(A2^2)</f>
         <v>0.04</v>
       </c>
-      <c r="C2">
-        <v>2704</v>
-      </c>
-      <c r="D2">
-        <f>(B2-B11)/9</f>
+      <c r="E2">
+        <f>(C2-C11)/9</f>
         <v>4.3750000000000004E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
-        <f t="shared" ref="A3:A10" si="0">(1/B3)^0.5</f>
+        <f t="shared" ref="A3:A10" si="0">(1/C3)^0.5</f>
         <v>5.2981294282601752</v>
       </c>
-      <c r="B3" s="1">
-        <f t="shared" ref="B3:B10" si="1">B4+$D$2</f>
+      <c r="B3">
+        <v>2474</v>
+      </c>
+      <c r="C3" s="1">
+        <f t="shared" ref="C3:C10" si="1">C4+$E$2</f>
         <v>3.5625000000000004E-2</v>
       </c>
-      <c r="C3">
-        <v>2474</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <f t="shared" si="0"/>
         <v>5.6568542494923806</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4">
+        <v>2061</v>
+      </c>
+      <c r="C4" s="1">
         <f t="shared" si="1"/>
         <v>3.125E-2</v>
       </c>
-      <c r="C4">
-        <v>2061</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <f t="shared" si="0"/>
         <v>6.0999428133041862</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5">
+        <v>1830</v>
+      </c>
+      <c r="C5" s="1">
         <f t="shared" si="1"/>
         <v>2.6875000000000003E-2</v>
       </c>
-      <c r="C5">
-        <v>1830</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <f t="shared" si="0"/>
         <v>6.6666666666666661</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6">
+        <v>1552</v>
+      </c>
+      <c r="C6" s="1">
         <f t="shared" si="1"/>
         <v>2.2500000000000003E-2</v>
       </c>
-      <c r="C6">
-        <v>1552</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <f t="shared" si="0"/>
         <v>7.4278135270820744</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7">
+        <v>1320</v>
+      </c>
+      <c r="C7" s="1">
         <f t="shared" si="1"/>
         <v>1.8125000000000002E-2</v>
       </c>
-      <c r="C7">
-        <v>1320</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <f t="shared" si="0"/>
         <v>8.5280286542244177</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8">
+        <v>1005</v>
+      </c>
+      <c r="C8" s="1">
         <f t="shared" si="1"/>
         <v>1.3750000000000002E-2</v>
       </c>
-      <c r="C8">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <f t="shared" si="0"/>
         <v>10.327955589886445</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9">
+        <v>743</v>
+      </c>
+      <c r="C9" s="1">
         <f t="shared" si="1"/>
         <v>9.3750000000000014E-3</v>
       </c>
-      <c r="C9">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <f t="shared" si="0"/>
         <v>14.142135623730951</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10">
+        <v>523</v>
+      </c>
+      <c r="C10" s="1">
         <f t="shared" si="1"/>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="C10">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>40</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11">
+        <v>319</v>
+      </c>
+      <c r="C11" s="1">
         <f>1/(A11^2)</f>
         <v>6.2500000000000001E-4</v>
-      </c>
-      <c r="C11">
-        <v>319</v>
       </c>
     </row>
   </sheetData>
@@ -882,7 +1127,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -992,5 +1239,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/radioaktiivisuus/säteily.xlsx
+++ b/radioaktiivisuus/säteily.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="555" windowWidth="20775" windowHeight="9405" activeTab="2"/>
+    <workbookView xWindow="270" yWindow="555" windowWidth="20775" windowHeight="9405"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>r</t>
   </si>
@@ -47,14 +47,21 @@
   <si>
     <t>Havaitut pulssit (kpl)</t>
   </si>
+  <si>
+    <t>Havaittujen pulssien virhe</t>
+  </si>
+  <si>
+    <t>1/r^2-virhe</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -89,7 +96,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -100,6 +107,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -131,48 +144,20 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400"/>
-              <a:t>Havaittujen</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400" baseline="0"/>
-              <a:t> pulssien määrä eri etäisyyksiltä</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="1400"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Havaitut pulssit (kpl)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Havaittujen pulssien määrä eri 1/r^2 arvoilla</c:v>
           </c:tx>
           <c:spPr>
             <a:ln>
@@ -180,56 +165,227 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:symbol val="x"/>
-            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </c:spPr>
           </c:marker>
           <c:trendline>
             <c:trendlineType val="linear"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
-          <c:cat>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$E$2:$E$11</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>52</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>49.739320461783549</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>45.398237851264668</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>42.778499272414876</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>39.395431207184416</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>36.331804249169899</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>31.701734968294716</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>27.258026340878022</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>22.869193252058544</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>17.86057109949175</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$E$2:$E$11</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>52</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>49.739320461783549</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>45.398237851264668</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>42.778499272414876</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>39.395431207184416</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>36.331804249169899</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>31.701734968294716</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>27.258026340878022</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>22.869193252058544</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>17.86057109949175</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$C$2:$C$11</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>1.6000000000000001E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.3448142587826025E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.1048543456039803E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>8.8115580170308153E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>6.7500000000000025E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>4.8803056064656452E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>3.2246608348786076E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1.8154609435347272E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>7.071067811865474E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>3.1250000000000001E-6</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$C$2:$C$11</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>1.6000000000000001E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.3448142587826025E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.1048543456039803E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>8.8115580170308153E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>6.7500000000000025E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>4.8803056064656452E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>3.2246608348786076E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1.8154609435347272E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>7.071067811865474E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>3.1250000000000001E-6</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$11</c:f>
+              <c:f>Sheet1!$B$2:$B$11</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.2981294282601752</c:v>
+                  <c:v>3.5625000000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.6568542494923806</c:v>
+                  <c:v>3.125E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.0999428133041862</c:v>
+                  <c:v>2.6875000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.6666666666666661</c:v>
+                  <c:v>2.2500000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.4278135270820744</c:v>
+                  <c:v>1.8125000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.5280286542244177</c:v>
+                  <c:v>1.3750000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10.327955589886445</c:v>
+                  <c:v>9.3750000000000014E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>14.142135623730951</c:v>
+                  <c:v>5.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>40</c:v>
+                  <c:v>6.2500000000000001E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$11</c:f>
+              <c:f>Sheet1!$D$2:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -265,7 +421,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
@@ -276,19 +432,16 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="150003072"/>
-        <c:axId val="177165440"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="150003072"/>
+        <c:axId val="206104064"/>
+        <c:axId val="206102528"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="206104064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines/>
         <c:minorGridlines/>
         <c:title>
           <c:tx>
@@ -301,7 +454,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="fi-FI"/>
-                  <a:t>Etäisyys säteilylähteestä (cm)</a:t>
+                  <a:t>1/r^2 (cm^-2)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -309,25 +462,21 @@
           <c:layout/>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="177165440"/>
+        <c:crossAx val="206102528"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
-        <c:axId val="177165440"/>
+        <c:axId val="206102528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
         <c:minorGridlines/>
         <c:title>
           <c:tx>
@@ -340,8 +489,13 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="fi-FI"/>
-                  <a:t>Havaitut pulssit (kpl)</a:t>
+                  <a:t>Havaittujen</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="fi-FI" baseline="0"/>
+                  <a:t> pulssien määrä (kpl)</a:t>
+                </a:r>
+                <a:endParaRPr lang="fi-FI"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -349,10 +503,10 @@
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="150003072"/>
+        <c:crossAx val="206104064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -504,11 +658,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="245026816"/>
-        <c:axId val="245028352"/>
+        <c:axId val="205562624"/>
+        <c:axId val="205564160"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="245026816"/>
+        <c:axId val="205562624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -518,7 +672,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="245028352"/>
+        <c:crossAx val="205564160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -526,7 +680,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="245028352"/>
+        <c:axId val="205564160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -537,7 +691,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="245026816"/>
+        <c:crossAx val="205562624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -563,20 +717,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>990600</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>923924</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>942976</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>695324</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -916,163 +1070,251 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="21.28515625" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>5</v>
       </c>
-      <c r="B2">
-        <v>2704</v>
-      </c>
-      <c r="C2" s="1">
+      <c r="B2" s="1">
         <f>1/(A2^2)</f>
         <v>0.04</v>
       </c>
-      <c r="E2">
-        <f>(C2-C11)/9</f>
+      <c r="C2" s="5">
+        <f>2/A2^3*0.1</f>
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="D2">
+        <v>2704</v>
+      </c>
+      <c r="E2" s="4">
+        <f>D2^0.5</f>
+        <v>52</v>
+      </c>
+      <c r="F2">
+        <f>(B2-B11)/9</f>
         <v>4.3750000000000004E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
-        <f t="shared" ref="A3:A10" si="0">(1/C3)^0.5</f>
+        <f>(1/B3)^0.5</f>
         <v>5.2981294282601752</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
+        <f>B4+$F$2</f>
+        <v>3.5625000000000004E-2</v>
+      </c>
+      <c r="C3" s="5">
+        <f t="shared" ref="C3:C11" si="0">2/A3^3*0.1</f>
+        <v>1.3448142587826025E-3</v>
+      </c>
+      <c r="D3">
         <v>2474</v>
       </c>
-      <c r="C3" s="1">
-        <f t="shared" ref="C3:C10" si="1">C4+$E$2</f>
-        <v>3.5625000000000004E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E3" s="4">
+        <f t="shared" ref="E3:E11" si="1">D3^0.5</f>
+        <v>49.739320461783549</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
+        <f>(1/B4)^0.5</f>
+        <v>5.6568542494923806</v>
+      </c>
+      <c r="B4" s="1">
+        <f>B5+$F$2</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="C4" s="5">
         <f t="shared" si="0"/>
-        <v>5.6568542494923806</v>
-      </c>
-      <c r="B4">
+        <v>1.1048543456039803E-3</v>
+      </c>
+      <c r="D4">
         <v>2061</v>
       </c>
-      <c r="C4" s="1">
+      <c r="E4" s="4">
         <f t="shared" si="1"/>
-        <v>3.125E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>45.398237851264668</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
+        <f>(1/B5)^0.5</f>
+        <v>6.0999428133041862</v>
+      </c>
+      <c r="B5" s="1">
+        <f>B6+$F$2</f>
+        <v>2.6875000000000003E-2</v>
+      </c>
+      <c r="C5" s="5">
         <f t="shared" si="0"/>
-        <v>6.0999428133041862</v>
-      </c>
-      <c r="B5">
+        <v>8.8115580170308153E-4</v>
+      </c>
+      <c r="D5">
         <v>1830</v>
       </c>
-      <c r="C5" s="1">
+      <c r="E5" s="4">
         <f t="shared" si="1"/>
-        <v>2.6875000000000003E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>42.778499272414876</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
+        <f>(1/B6)^0.5</f>
+        <v>6.6666666666666661</v>
+      </c>
+      <c r="B6" s="1">
+        <f>B7+$F$2</f>
+        <v>2.2500000000000003E-2</v>
+      </c>
+      <c r="C6" s="5">
         <f t="shared" si="0"/>
-        <v>6.6666666666666661</v>
-      </c>
-      <c r="B6">
+        <v>6.7500000000000025E-4</v>
+      </c>
+      <c r="D6">
         <v>1552</v>
       </c>
-      <c r="C6" s="1">
+      <c r="E6" s="4">
         <f t="shared" si="1"/>
-        <v>2.2500000000000003E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>39.395431207184416</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
+        <f>(1/B7)^0.5</f>
+        <v>7.4278135270820744</v>
+      </c>
+      <c r="B7" s="1">
+        <f>B8+$F$2</f>
+        <v>1.8125000000000002E-2</v>
+      </c>
+      <c r="C7" s="5">
         <f t="shared" si="0"/>
-        <v>7.4278135270820744</v>
-      </c>
-      <c r="B7">
+        <v>4.8803056064656452E-4</v>
+      </c>
+      <c r="D7">
         <v>1320</v>
       </c>
-      <c r="C7" s="1">
+      <c r="E7" s="4">
         <f t="shared" si="1"/>
-        <v>1.8125000000000002E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>36.331804249169899</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
+        <f>(1/B8)^0.5</f>
+        <v>8.5280286542244177</v>
+      </c>
+      <c r="B8" s="1">
+        <f>B9+$F$2</f>
+        <v>1.3750000000000002E-2</v>
+      </c>
+      <c r="C8" s="5">
         <f t="shared" si="0"/>
-        <v>8.5280286542244177</v>
-      </c>
-      <c r="B8">
+        <v>3.2246608348786076E-4</v>
+      </c>
+      <c r="D8">
         <v>1005</v>
       </c>
-      <c r="C8" s="1">
+      <c r="E8" s="4">
         <f t="shared" si="1"/>
-        <v>1.3750000000000002E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>31.701734968294716</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
+        <f>(1/B9)^0.5</f>
+        <v>10.327955589886445</v>
+      </c>
+      <c r="B9" s="1">
+        <f>B10+$F$2</f>
+        <v>9.3750000000000014E-3</v>
+      </c>
+      <c r="C9" s="5">
         <f t="shared" si="0"/>
-        <v>10.327955589886445</v>
-      </c>
-      <c r="B9">
+        <v>1.8154609435347272E-4</v>
+      </c>
+      <c r="D9">
         <v>743</v>
       </c>
-      <c r="C9" s="1">
+      <c r="E9" s="4">
         <f t="shared" si="1"/>
-        <v>9.3750000000000014E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>27.258026340878022</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
+        <f>(1/B10)^0.5</f>
+        <v>14.142135623730951</v>
+      </c>
+      <c r="B10" s="1">
+        <f>B11+$F$2</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C10" s="5">
         <f t="shared" si="0"/>
-        <v>14.142135623730951</v>
-      </c>
-      <c r="B10">
+        <v>7.071067811865474E-5</v>
+      </c>
+      <c r="D10">
         <v>523</v>
       </c>
-      <c r="C10" s="1">
+      <c r="E10" s="4">
         <f t="shared" si="1"/>
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>22.869193252058544</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>40</v>
       </c>
-      <c r="B11">
-        <v>319</v>
-      </c>
-      <c r="C11" s="1">
+      <c r="B11" s="1">
         <f>1/(A11^2)</f>
         <v>6.2500000000000001E-4</v>
       </c>
+      <c r="C11" s="5">
+        <f t="shared" si="0"/>
+        <v>3.1250000000000001E-6</v>
+      </c>
+      <c r="D11">
+        <v>319</v>
+      </c>
+      <c r="E11" s="4">
+        <f t="shared" si="1"/>
+        <v>17.86057109949175</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="200" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -1127,7 +1369,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>

--- a/radioaktiivisuus/säteily.xlsx
+++ b/radioaktiivisuus/säteily.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="555" windowWidth="20775" windowHeight="9405"/>
+    <workbookView xWindow="270" yWindow="555" windowWidth="20775" windowHeight="9405" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>r</t>
   </si>
@@ -52,6 +52,12 @@
   </si>
   <si>
     <t>1/r^2-virhe</t>
+  </si>
+  <si>
+    <t>N-taustasäteily</t>
+  </si>
+  <si>
+    <t>N-virhe</t>
   </si>
 </sst>
 </file>
@@ -432,11 +438,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="206104064"/>
-        <c:axId val="206102528"/>
+        <c:axId val="157108480"/>
+        <c:axId val="209498496"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="206104064"/>
+        <c:axId val="157108480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -466,12 +472,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="206102528"/>
+        <c:crossAx val="209498496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="206102528"/>
+        <c:axId val="209498496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -506,7 +512,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="206104064"/>
+        <c:crossAx val="157108480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -537,31 +543,128 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>Havaittujen pulssien lukumäärä</c:v>
-          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:trendline>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet3!$D$2:$D$12</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="11"/>
+                  <c:pt idx="0">
+                    <c:v>42.508822613664563</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>40.049968789001575</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>40.099875311526844</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>36.891733491393431</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>36.633318168028403</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>33.719430600174732</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>33.496268448888451</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>28.460498941515414</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>24.819347291981714</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>21.494185260204677</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>19.570385790780925</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet3!$D$2:$D$12</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="11"/>
+                  <c:pt idx="0">
+                    <c:v>42.508822613664563</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>40.049968789001575</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>40.099875311526844</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>36.891733491393431</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>36.633318168028403</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>33.719430600174732</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>33.496268448888451</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>28.460498941515414</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>24.819347291981714</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>21.494185260204677</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>19.570385790780925</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:xVal>
             <c:numRef>
-              <c:f>Sheet3!$A$2:$A$13</c:f>
+              <c:f>Sheet3!$A$2:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -595,57 +698,51 @@
                 <c:pt idx="10">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>80</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
-              <c:f>Sheet3!$B$2:$B$13</c:f>
+              <c:f>Sheet3!$C$2:$C$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>4000</c:v>
+                  <c:v>1807</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3797</c:v>
+                  <c:v>1604</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3801</c:v>
+                  <c:v>1608</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3554</c:v>
+                  <c:v>1361</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3535</c:v>
+                  <c:v>1342</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3330</c:v>
+                  <c:v>1137</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3315</c:v>
+                  <c:v>1122</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3003</c:v>
+                  <c:v>810</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2809</c:v>
+                  <c:v>616</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2655</c:v>
+                  <c:v>462</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2576</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2193</c:v>
+                  <c:v>383</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
@@ -656,51 +753,86 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="205562624"/>
-        <c:axId val="205564160"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="205562624"/>
+        <c:axId val="33067392"/>
+        <c:axId val="33065600"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="33067392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="50"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:minorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fi-FI"/>
+                  <a:t>Lyijyesteen</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="fi-FI" baseline="0"/>
+                  <a:t> paksuus (mm)</a:t>
+                </a:r>
+                <a:endParaRPr lang="fi-FI"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="205564160"/>
+        <c:crossAx val="33065600"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
-        <c:axId val="205564160"/>
+        <c:axId val="33065600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fi-FI"/>
+                  <a:t>Havaittujen pulssien määrä (kpl)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="205562624"/>
+        <c:crossAx val="33067392"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -752,20 +884,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>990600</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>990600</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="3" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1072,7 +1204,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
@@ -1126,169 +1258,169 @@
     </row>
     <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
-        <f>(1/B3)^0.5</f>
+        <f t="shared" ref="A3:A10" si="0">(1/B3)^0.5</f>
         <v>5.2981294282601752</v>
       </c>
       <c r="B3" s="1">
-        <f>B4+$F$2</f>
+        <f t="shared" ref="B3:B10" si="1">B4+$F$2</f>
         <v>3.5625000000000004E-2</v>
       </c>
       <c r="C3" s="5">
-        <f t="shared" ref="C3:C11" si="0">2/A3^3*0.1</f>
+        <f t="shared" ref="C3:C11" si="2">2/A3^3*0.1</f>
         <v>1.3448142587826025E-3</v>
       </c>
       <c r="D3">
         <v>2474</v>
       </c>
       <c r="E3" s="4">
-        <f t="shared" ref="E3:E11" si="1">D3^0.5</f>
+        <f t="shared" ref="E3:E11" si="3">D3^0.5</f>
         <v>49.739320461783549</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
-        <f>(1/B4)^0.5</f>
+        <f t="shared" si="0"/>
         <v>5.6568542494923806</v>
       </c>
       <c r="B4" s="1">
-        <f>B5+$F$2</f>
+        <f t="shared" si="1"/>
         <v>3.125E-2</v>
       </c>
       <c r="C4" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.1048543456039803E-3</v>
       </c>
       <c r="D4">
         <v>2061</v>
       </c>
       <c r="E4" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>45.398237851264668</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
-        <f>(1/B5)^0.5</f>
+        <f t="shared" si="0"/>
         <v>6.0999428133041862</v>
       </c>
       <c r="B5" s="1">
-        <f>B6+$F$2</f>
+        <f t="shared" si="1"/>
         <v>2.6875000000000003E-2</v>
       </c>
       <c r="C5" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8.8115580170308153E-4</v>
       </c>
       <c r="D5">
         <v>1830</v>
       </c>
       <c r="E5" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>42.778499272414876</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
-        <f>(1/B6)^0.5</f>
+        <f t="shared" si="0"/>
         <v>6.6666666666666661</v>
       </c>
       <c r="B6" s="1">
-        <f>B7+$F$2</f>
+        <f t="shared" si="1"/>
         <v>2.2500000000000003E-2</v>
       </c>
       <c r="C6" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.7500000000000025E-4</v>
       </c>
       <c r="D6">
         <v>1552</v>
       </c>
       <c r="E6" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>39.395431207184416</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
-        <f>(1/B7)^0.5</f>
+        <f t="shared" si="0"/>
         <v>7.4278135270820744</v>
       </c>
       <c r="B7" s="1">
-        <f>B8+$F$2</f>
+        <f t="shared" si="1"/>
         <v>1.8125000000000002E-2</v>
       </c>
       <c r="C7" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4.8803056064656452E-4</v>
       </c>
       <c r="D7">
         <v>1320</v>
       </c>
       <c r="E7" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>36.331804249169899</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
-        <f>(1/B8)^0.5</f>
+        <f t="shared" si="0"/>
         <v>8.5280286542244177</v>
       </c>
       <c r="B8" s="1">
-        <f>B9+$F$2</f>
+        <f t="shared" si="1"/>
         <v>1.3750000000000002E-2</v>
       </c>
       <c r="C8" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.2246608348786076E-4</v>
       </c>
       <c r="D8">
         <v>1005</v>
       </c>
       <c r="E8" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>31.701734968294716</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
-        <f>(1/B9)^0.5</f>
+        <f t="shared" si="0"/>
         <v>10.327955589886445</v>
       </c>
       <c r="B9" s="1">
-        <f>B10+$F$2</f>
+        <f t="shared" si="1"/>
         <v>9.3750000000000014E-3</v>
       </c>
       <c r="C9" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.8154609435347272E-4</v>
       </c>
       <c r="D9">
         <v>743</v>
       </c>
       <c r="E9" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>27.258026340878022</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
-        <f>(1/B10)^0.5</f>
+        <f t="shared" si="0"/>
         <v>14.142135623730951</v>
       </c>
       <c r="B10" s="1">
-        <f>B11+$F$2</f>
+        <f t="shared" si="1"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="C10" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7.071067811865474E-5</v>
       </c>
       <c r="D10">
         <v>523</v>
       </c>
       <c r="E10" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>22.869193252058544</v>
       </c>
     </row>
@@ -1301,14 +1433,14 @@
         <v>6.2500000000000001E-4</v>
       </c>
       <c r="C11" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.1250000000000001E-6</v>
       </c>
       <c r="D11">
         <v>319</v>
       </c>
       <c r="E11" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>17.86057109949175</v>
       </c>
     </row>
@@ -1367,116 +1499,218 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>8</v>
       </c>
       <c r="B1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
         <v>4000</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C2">
+        <f>B2-B$13</f>
+        <v>1807</v>
+      </c>
+      <c r="D2">
+        <f>C2^0.5</f>
+        <v>42.508822613664563</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
         <v>3797</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C3">
+        <f t="shared" ref="C3:C13" si="0">B3-B$13</f>
+        <v>1604</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D13" si="1">C3^0.5</f>
+        <v>40.049968789001575</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4</v>
       </c>
       <c r="B4">
         <v>3801</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>1608</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="1"/>
+        <v>40.099875311526844</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>6</v>
       </c>
       <c r="B5">
         <v>3554</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>1361</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>36.891733491393431</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>8</v>
       </c>
       <c r="B6">
         <v>3535</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>1342</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>36.633318168028403</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>12</v>
       </c>
       <c r="B7">
         <v>3330</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>1137</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>33.719430600174732</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>16</v>
       </c>
       <c r="B8">
         <v>3315</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>1122</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>33.496268448888451</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>20</v>
       </c>
       <c r="B9">
         <v>3003</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>810</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>28.460498941515414</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>28</v>
       </c>
       <c r="B10">
         <v>2809</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>616</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>24.819347291981714</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>36</v>
       </c>
       <c r="B11">
         <v>2655</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>462</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>21.494185260204677</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>50</v>
       </c>
       <c r="B12">
         <v>2576</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>383</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>19.570385790780925</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>80</v>
       </c>
       <c r="B13">
         <v>2193</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/radioaktiivisuus/säteily.xlsx
+++ b/radioaktiivisuus/säteily.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>r</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>N-virhe</t>
+  </si>
+  <si>
+    <t>Nvirhe</t>
   </si>
 </sst>
 </file>
@@ -576,84 +579,84 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Sheet3!$D$2:$D$12</c:f>
+                <c:f>Sheet3!$E$2:$E$12</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="11"/>
                   <c:pt idx="0">
-                    <c:v>42.508822613664563</c:v>
+                    <c:v>63.245553203367585</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>40.049968789001575</c:v>
+                    <c:v>61.619802012015583</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>40.099875311526844</c:v>
+                    <c:v>61.652250567193406</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>36.891733491393431</c:v>
+                    <c:v>59.615434243155519</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>36.633318168028403</c:v>
+                    <c:v>59.455865984778995</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>33.719430600174732</c:v>
+                    <c:v>57.706152185014034</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>33.496268448888451</c:v>
+                    <c:v>57.576036681939129</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>28.460498941515414</c:v>
+                    <c:v>54.799635035281028</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>24.819347291981714</c:v>
+                    <c:v>53</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>21.494185260204677</c:v>
+                    <c:v>51.526692111953004</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>19.570385790780925</c:v>
+                    <c:v>50.754310161798081</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Sheet3!$D$2:$D$12</c:f>
+                <c:f>Sheet3!$E$2:$E$12</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="11"/>
                   <c:pt idx="0">
-                    <c:v>42.508822613664563</c:v>
+                    <c:v>63.245553203367585</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>40.049968789001575</c:v>
+                    <c:v>61.619802012015583</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>40.099875311526844</c:v>
+                    <c:v>61.652250567193406</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>36.891733491393431</c:v>
+                    <c:v>59.615434243155519</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>36.633318168028403</c:v>
+                    <c:v>59.455865984778995</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>33.719430600174732</c:v>
+                    <c:v>57.706152185014034</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>33.496268448888451</c:v>
+                    <c:v>57.576036681939129</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>28.460498941515414</c:v>
+                    <c:v>54.799635035281028</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>24.819347291981714</c:v>
+                    <c:v>53</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>21.494185260204677</c:v>
+                    <c:v>51.526692111953004</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>19.570385790780925</c:v>
+                    <c:v>50.754310161798081</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -816,7 +819,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="fi-FI"/>
-                  <a:t>Havaittujen pulssien määrä (kpl)</a:t>
+                  <a:t>Säteilylähteestä havaittujen pulssien määrä (kpl)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -884,16 +887,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
+      <xdr:rowOff>133349</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1499,15 +1502,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -1520,8 +1523,11 @@
       <c r="D1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1536,8 +1542,12 @@
         <f>C2^0.5</f>
         <v>42.508822613664563</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E2">
+        <f>B2^0.5</f>
+        <v>63.245553203367585</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1552,8 +1562,12 @@
         <f t="shared" ref="D3:D13" si="1">C3^0.5</f>
         <v>40.049968789001575</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E3">
+        <f t="shared" ref="E3:E13" si="2">B3^0.5</f>
+        <v>61.619802012015583</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4</v>
       </c>
@@ -1568,8 +1582,12 @@
         <f t="shared" si="1"/>
         <v>40.099875311526844</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E4">
+        <f t="shared" si="2"/>
+        <v>61.652250567193406</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>6</v>
       </c>
@@ -1584,8 +1602,12 @@
         <f t="shared" si="1"/>
         <v>36.891733491393431</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E5">
+        <f t="shared" si="2"/>
+        <v>59.615434243155519</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>8</v>
       </c>
@@ -1600,8 +1622,12 @@
         <f t="shared" si="1"/>
         <v>36.633318168028403</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E6">
+        <f t="shared" si="2"/>
+        <v>59.455865984778995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>12</v>
       </c>
@@ -1616,8 +1642,12 @@
         <f t="shared" si="1"/>
         <v>33.719430600174732</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E7">
+        <f t="shared" si="2"/>
+        <v>57.706152185014034</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>16</v>
       </c>
@@ -1632,8 +1662,12 @@
         <f t="shared" si="1"/>
         <v>33.496268448888451</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E8">
+        <f t="shared" si="2"/>
+        <v>57.576036681939129</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>20</v>
       </c>
@@ -1648,8 +1682,12 @@
         <f t="shared" si="1"/>
         <v>28.460498941515414</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E9">
+        <f t="shared" si="2"/>
+        <v>54.799635035281028</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>28</v>
       </c>
@@ -1664,8 +1702,12 @@
         <f t="shared" si="1"/>
         <v>24.819347291981714</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E10">
+        <f t="shared" si="2"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>36</v>
       </c>
@@ -1680,8 +1722,12 @@
         <f t="shared" si="1"/>
         <v>21.494185260204677</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E11">
+        <f t="shared" si="2"/>
+        <v>51.526692111953004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>50</v>
       </c>
@@ -1696,8 +1742,12 @@
         <f t="shared" si="1"/>
         <v>19.570385790780925</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E12">
+        <f t="shared" si="2"/>
+        <v>50.754310161798081</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>80</v>
       </c>
@@ -1711,6 +1761,10 @@
       <c r="D13">
         <f t="shared" si="1"/>
         <v>0</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="2"/>
+        <v>46.82947789587238</v>
       </c>
     </row>
   </sheetData>
